--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3559654.085900057</v>
+        <v>3557258.429894877</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7834278.115728337</v>
+        <v>7834278.115728338</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5.770377255371301</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>326.1318980376947</v>
+        <v>412.2877386950442</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>308.5974454495114</v>
       </c>
       <c r="I2" t="n">
-        <v>94.24014755885155</v>
+        <v>94.24014755885219</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>140.315783973424</v>
+        <v>140.3157839734244</v>
       </c>
       <c r="T2" t="n">
         <v>209.8976922291835</v>
@@ -716,16 +716,16 @@
         <v>251.1044530022292</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +753,10 @@
         <v>135.7303505775365</v>
       </c>
       <c r="H3" t="n">
-        <v>96.65565115906496</v>
+        <v>96.65565115906504</v>
       </c>
       <c r="I3" t="n">
-        <v>33.85559031833728</v>
+        <v>33.85559031833759</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>4.405364961712621e-13</v>
       </c>
       <c r="S3" t="n">
-        <v>141.7193093041456</v>
+        <v>141.7193093041457</v>
       </c>
       <c r="T3" t="n">
         <v>193.6625353078282</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.6385546828073</v>
+        <v>60.10129804361089</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>66.90555490674696</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.4475243713016</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>222.1670476323163</v>
       </c>
       <c r="U4" t="n">
         <v>286.245260737819</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,19 +902,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0434357771752</v>
       </c>
       <c r="V5" t="n">
-        <v>257.0447017489837</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>166.6677888758719</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I6" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>66.12803363640502</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.2964268507295</v>
       </c>
       <c r="H7" t="n">
-        <v>147.161060211447</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>33.93089591116075</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>239.5094493590976</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.52502338186935</v>
+        <v>411.5250233818693</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>300.7862872484598</v>
       </c>
       <c r="I8" t="n">
-        <v>60.17937757393499</v>
+        <v>64.83556544767973</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.5589059457607</v>
       </c>
       <c r="U8" t="n">
         <v>251.0434357771752</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.71437374394026</v>
       </c>
       <c r="I9" t="n">
-        <v>19.80516901555396</v>
+        <v>19.80516901555393</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.2964268507295</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>41.00292043258601</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.1001486205444</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.4851693340911</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7052287134384</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2265992197056</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>126.1605539371083</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="I13" t="n">
-        <v>15.93450140722132</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1765,7 +1765,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>109.0404882242259</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>136.5667167289874</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,7 +2056,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766856</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>126.9927435506632</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2482,7 +2482,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187859</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>7.613741235232844</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>216.5793400412173</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3430,19 +3430,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>140.7158229532351</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3667,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3752,7 +3752,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>46.13809394730835</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1256.366504928138</v>
+        <v>887.9329408788708</v>
       </c>
       <c r="C2" t="n">
-        <v>887.4039879877266</v>
+        <v>887.9329408788708</v>
       </c>
       <c r="D2" t="n">
-        <v>887.4039879877266</v>
+        <v>887.9329408788708</v>
       </c>
       <c r="E2" t="n">
-        <v>887.4039879877266</v>
+        <v>882.1042769845563</v>
       </c>
       <c r="F2" t="n">
-        <v>476.4180831981191</v>
+        <v>875.1587762353529</v>
       </c>
       <c r="G2" t="n">
-        <v>146.9919235640839</v>
+        <v>458.7065149272275</v>
       </c>
       <c r="H2" t="n">
-        <v>146.9919235640839</v>
+        <v>146.9919235640846</v>
       </c>
       <c r="I2" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J2" t="n">
-        <v>125.8997233870233</v>
+        <v>293.3053724073749</v>
       </c>
       <c r="K2" t="n">
-        <v>287.6947354520187</v>
+        <v>455.1003844723683</v>
       </c>
       <c r="L2" t="n">
-        <v>730.2783389764048</v>
+        <v>692.7231656905578</v>
       </c>
       <c r="M2" t="n">
-        <v>1371.301548596299</v>
+        <v>988.793732248158</v>
       </c>
       <c r="N2" t="n">
-        <v>2012.324758216193</v>
+        <v>1436.225927159633</v>
       </c>
       <c r="O2" t="n">
-        <v>2287.440977532827</v>
+        <v>2077.249136779527</v>
       </c>
       <c r="P2" t="n">
-        <v>2487.74530482193</v>
+        <v>2277.553464068628</v>
       </c>
       <c r="Q2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R2" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S2" t="n">
-        <v>2448.259651016315</v>
+        <v>2448.259651016316</v>
       </c>
       <c r="T2" t="n">
-        <v>2236.241780077746</v>
+        <v>2236.241780077747</v>
       </c>
       <c r="U2" t="n">
-        <v>1982.600918459332</v>
+        <v>1982.600918459333</v>
       </c>
       <c r="V2" t="n">
-        <v>1982.600918459332</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="W2" t="n">
-        <v>1629.832263189218</v>
+        <v>1651.538031115762</v>
       </c>
       <c r="X2" t="n">
-        <v>1256.366504928138</v>
+        <v>1278.072272854683</v>
       </c>
       <c r="Y2" t="n">
-        <v>1256.366504928138</v>
+        <v>887.9329408788708</v>
       </c>
     </row>
     <row r="3">
@@ -4383,55 +4383,55 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>949.8902083093631</v>
+        <v>949.8902083093635</v>
       </c>
       <c r="C3" t="n">
-        <v>775.4371790282361</v>
+        <v>775.4371790282365</v>
       </c>
       <c r="D3" t="n">
-        <v>626.5027693669849</v>
+        <v>626.5027693669854</v>
       </c>
       <c r="E3" t="n">
-        <v>467.2653143615294</v>
+        <v>467.2653143615298</v>
       </c>
       <c r="F3" t="n">
-        <v>320.7307563884144</v>
+        <v>320.7307563884149</v>
       </c>
       <c r="G3" t="n">
-        <v>183.6293921686806</v>
+        <v>183.629392168681</v>
       </c>
       <c r="H3" t="n">
-        <v>85.99742130093836</v>
+        <v>85.99742130093853</v>
       </c>
       <c r="I3" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J3" t="n">
-        <v>201.9455071369554</v>
+        <v>77.11538214994989</v>
       </c>
       <c r="K3" t="n">
-        <v>585.1891840496874</v>
+        <v>198.5384744202275</v>
       </c>
       <c r="L3" t="n">
-        <v>794.7800573025183</v>
+        <v>408.1293476730567</v>
       </c>
       <c r="M3" t="n">
-        <v>1058.719588798006</v>
+        <v>672.0688791685421</v>
       </c>
       <c r="N3" t="n">
-        <v>1590.326047362088</v>
+        <v>1313.092088788436</v>
       </c>
       <c r="O3" t="n">
-        <v>1829.130999113547</v>
+        <v>1941.820736623855</v>
       </c>
       <c r="P3" t="n">
-        <v>2316.738101020794</v>
+        <v>2316.738101020796</v>
       </c>
       <c r="Q3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="R3" t="n">
-        <v>2589.992766140986</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S3" t="n">
         <v>2446.841948662051</v>
@@ -4440,7 +4440,7 @@
         <v>2251.223226128891</v>
       </c>
       <c r="U3" t="n">
-        <v>2023.106809259862</v>
+        <v>2023.106809259863</v>
       </c>
       <c r="V3" t="n">
         <v>1787.95470102812</v>
@@ -4452,7 +4452,7 @@
         <v>1325.865844094385</v>
       </c>
       <c r="Y3" t="n">
-        <v>1118.105545329431</v>
+        <v>1118.105545329432</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>518.1513607244246</v>
+        <v>112.508237185053</v>
       </c>
       <c r="C4" t="n">
-        <v>518.1513607244246</v>
+        <v>112.508237185053</v>
       </c>
       <c r="D4" t="n">
-        <v>368.0347213120889</v>
+        <v>112.508237185053</v>
       </c>
       <c r="E4" t="n">
-        <v>220.1216277296958</v>
+        <v>112.508237185053</v>
       </c>
       <c r="F4" t="n">
-        <v>220.1216277296958</v>
+        <v>112.508237185053</v>
       </c>
       <c r="G4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I4" t="n">
-        <v>51.79985532281972</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J4" t="n">
-        <v>54.03452733018415</v>
+        <v>54.03452733018365</v>
       </c>
       <c r="K4" t="n">
-        <v>187.5436166159875</v>
+        <v>187.5436166159861</v>
       </c>
       <c r="L4" t="n">
-        <v>413.9157199341317</v>
+        <v>413.9157199341293</v>
       </c>
       <c r="M4" t="n">
-        <v>662.9824862666723</v>
+        <v>662.9824862666686</v>
       </c>
       <c r="N4" t="n">
-        <v>911.5616180092733</v>
+        <v>911.5616180092685</v>
       </c>
       <c r="O4" t="n">
-        <v>1125.148384357428</v>
+        <v>1125.148384357423</v>
       </c>
       <c r="P4" t="n">
-        <v>1284.388078993472</v>
+        <v>1284.388078993466</v>
       </c>
       <c r="Q4" t="n">
-        <v>1311.202309361123</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="R4" t="n">
-        <v>1243.620940768449</v>
+        <v>1311.202309361116</v>
       </c>
       <c r="S4" t="n">
-        <v>1243.620940768449</v>
+        <v>1108.730062521417</v>
       </c>
       <c r="T4" t="n">
-        <v>1243.620940768449</v>
+        <v>884.3189032968551</v>
       </c>
       <c r="U4" t="n">
-        <v>954.4843137605512</v>
+        <v>595.1822762889572</v>
       </c>
       <c r="V4" t="n">
-        <v>699.7998255546644</v>
+        <v>340.4977880830703</v>
       </c>
       <c r="W4" t="n">
-        <v>699.7998255546644</v>
+        <v>340.4977880830703</v>
       </c>
       <c r="X4" t="n">
-        <v>699.7998255546644</v>
+        <v>112.508237185053</v>
       </c>
       <c r="Y4" t="n">
-        <v>699.7998255546644</v>
+        <v>112.508237185053</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1587.443666017298</v>
+        <v>1267.145883568225</v>
       </c>
       <c r="C5" t="n">
-        <v>1218.481149076886</v>
+        <v>898.1833666278133</v>
       </c>
       <c r="D5" t="n">
-        <v>860.2154504701355</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="E5" t="n">
-        <v>474.4271978718912</v>
+        <v>539.9176680210627</v>
       </c>
       <c r="F5" t="n">
-        <v>63.44129308228369</v>
+        <v>532.9721672718592</v>
       </c>
       <c r="G5" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="H5" t="n">
-        <v>51.7998553228197</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I5" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J5" t="n">
-        <v>189.9868871104782</v>
+        <v>189.9868871104781</v>
       </c>
       <c r="K5" t="n">
-        <v>447.8319447135509</v>
+        <v>447.831944713551</v>
       </c>
       <c r="L5" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477384</v>
       </c>
       <c r="M5" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N5" t="n">
-        <v>1673.47811553997</v>
+        <v>1673.478115539971</v>
       </c>
       <c r="O5" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082063</v>
       </c>
       <c r="P5" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645558</v>
       </c>
       <c r="Q5" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R5" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="T5" t="n">
-        <v>2589.992766140985</v>
+        <v>2465.815585560732</v>
       </c>
       <c r="U5" t="n">
-        <v>2589.992766140985</v>
+        <v>2212.236357502979</v>
       </c>
       <c r="V5" t="n">
-        <v>2330.351653263223</v>
+        <v>2212.236357502979</v>
       </c>
       <c r="W5" t="n">
-        <v>1977.582997993109</v>
+        <v>2212.236357502979</v>
       </c>
       <c r="X5" t="n">
-        <v>1977.582997993109</v>
+        <v>2043.885055608158</v>
       </c>
       <c r="Y5" t="n">
-        <v>1587.443666017298</v>
+        <v>1653.745723632347</v>
       </c>
     </row>
     <row r="6">
@@ -4638,19 +4638,19 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H6" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I6" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J6" t="n">
-        <v>240.1153828096208</v>
+        <v>115.2852578226161</v>
       </c>
       <c r="K6" t="n">
-        <v>598.803157343134</v>
+        <v>301.9467472258289</v>
       </c>
       <c r="L6" t="n">
-        <v>896.1151064594485</v>
+        <v>896.1151064594483</v>
       </c>
       <c r="M6" t="n">
         <v>1262.420995951774</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1016.55307528209</v>
+        <v>455.5082205609635</v>
       </c>
       <c r="C7" t="n">
-        <v>847.6168923541835</v>
+        <v>286.5720376330567</v>
       </c>
       <c r="D7" t="n">
-        <v>697.5002529418477</v>
+        <v>286.5720376330567</v>
       </c>
       <c r="E7" t="n">
-        <v>549.5871593594546</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="F7" t="n">
-        <v>402.6972118615442</v>
+        <v>219.7760440609304</v>
       </c>
       <c r="G7" t="n">
-        <v>234.7210231234336</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="H7" t="n">
-        <v>86.0734875563154</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="I7" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281974</v>
       </c>
       <c r="J7" t="n">
-        <v>77.98108068080543</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K7" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L7" t="n">
-        <v>527.5702436225441</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M7" t="n">
-        <v>829.7308018317418</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N7" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O7" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P7" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="R7" t="n">
-        <v>1646.983670153877</v>
+        <v>1646.983670153878</v>
       </c>
       <c r="S7" t="n">
-        <v>1646.983670153877</v>
+        <v>1450.534004159847</v>
       </c>
       <c r="T7" t="n">
-        <v>1646.983670153877</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="U7" t="n">
-        <v>1646.983670153877</v>
+        <v>1227.599429701828</v>
       </c>
       <c r="V7" t="n">
-        <v>1646.983670153877</v>
+        <v>972.9149414959414</v>
       </c>
       <c r="W7" t="n">
-        <v>1646.983670153877</v>
+        <v>683.4977714589809</v>
       </c>
       <c r="X7" t="n">
-        <v>1418.99411925586</v>
+        <v>455.5082205609635</v>
       </c>
       <c r="Y7" t="n">
-        <v>1198.20154011233</v>
+        <v>455.5082205609635</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1262.442663493735</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="C8" t="n">
-        <v>893.4801465533235</v>
+        <v>1202.007899202015</v>
       </c>
       <c r="D8" t="n">
-        <v>535.214447946573</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="E8" t="n">
-        <v>535.214447946573</v>
+        <v>843.7422005952644</v>
       </c>
       <c r="F8" t="n">
-        <v>124.2285431569655</v>
+        <v>836.796699846061</v>
       </c>
       <c r="G8" t="n">
-        <v>112.5871053975015</v>
+        <v>421.1148580461929</v>
       </c>
       <c r="H8" t="n">
-        <v>112.5871053975015</v>
+        <v>117.2903254719912</v>
       </c>
       <c r="I8" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J8" t="n">
-        <v>189.9868871104779</v>
+        <v>189.9868871104782</v>
       </c>
       <c r="K8" t="n">
-        <v>447.8319447135508</v>
+        <v>447.8319447135514</v>
       </c>
       <c r="L8" t="n">
-        <v>804.6133007477379</v>
+        <v>804.6133007477392</v>
       </c>
       <c r="M8" t="n">
-        <v>1233.270741187502</v>
+        <v>1233.270741187503</v>
       </c>
       <c r="N8" t="n">
-        <v>1673.478115539971</v>
+        <v>1673.478115539972</v>
       </c>
       <c r="O8" t="n">
-        <v>2075.81819508206</v>
+        <v>2075.818195082062</v>
       </c>
       <c r="P8" t="n">
-        <v>2384.705143645556</v>
+        <v>2384.705143645557</v>
       </c>
       <c r="Q8" t="n">
-        <v>2568.493631507461</v>
+        <v>2568.493631507463</v>
       </c>
       <c r="R8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="S8" t="n">
-        <v>2589.992766140985</v>
+        <v>2589.992766140987</v>
       </c>
       <c r="T8" t="n">
-        <v>2589.992766140985</v>
+        <v>2381.347406599814</v>
       </c>
       <c r="U8" t="n">
-        <v>2336.413538083232</v>
+        <v>2127.768178542061</v>
       </c>
       <c r="V8" t="n">
-        <v>2005.350650739661</v>
+        <v>1796.70529119849</v>
       </c>
       <c r="W8" t="n">
-        <v>1652.581995469547</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="X8" t="n">
-        <v>1652.581995469547</v>
+        <v>1443.936635928376</v>
       </c>
       <c r="Y8" t="n">
-        <v>1262.442663493735</v>
+        <v>1443.936635928376</v>
       </c>
     </row>
     <row r="9">
@@ -4875,28 +4875,28 @@
         <v>165.4559591202886</v>
       </c>
       <c r="H9" t="n">
-        <v>71.80507655065198</v>
+        <v>71.80507655065199</v>
       </c>
       <c r="I9" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J9" t="n">
-        <v>115.2852578226161</v>
+        <v>240.1153828096209</v>
       </c>
       <c r="K9" t="n">
-        <v>301.9467472258287</v>
+        <v>426.7768722128336</v>
       </c>
       <c r="L9" t="n">
-        <v>599.2586963421434</v>
+        <v>724.0888213291483</v>
       </c>
       <c r="M9" t="n">
-        <v>965.5645858344687</v>
+        <v>1090.394710821474</v>
       </c>
       <c r="N9" t="n">
-        <v>1355.974147160211</v>
+        <v>1480.804272147216</v>
       </c>
       <c r="O9" t="n">
-        <v>1690.902827875742</v>
+        <v>1987.759237993047</v>
       </c>
       <c r="P9" t="n">
         <v>2237.235965858066</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.1359052451298</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="C10" t="n">
-        <v>558.1997223172229</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="D10" t="n">
-        <v>408.0830829048872</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="E10" t="n">
-        <v>408.0830829048872</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="F10" t="n">
-        <v>261.1931354069768</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="G10" t="n">
-        <v>93.21694666886617</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="H10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="I10" t="n">
-        <v>51.7998553228197</v>
+        <v>51.79985532281973</v>
       </c>
       <c r="J10" t="n">
-        <v>77.98108068080545</v>
+        <v>77.98108068080552</v>
       </c>
       <c r="K10" t="n">
-        <v>250.8417132121971</v>
+        <v>250.8417132121972</v>
       </c>
       <c r="L10" t="n">
-        <v>527.5702436225442</v>
+        <v>527.5702436225445</v>
       </c>
       <c r="M10" t="n">
-        <v>829.7308018317419</v>
+        <v>829.7308018317423</v>
       </c>
       <c r="N10" t="n">
-        <v>1130.141273750633</v>
+        <v>1130.141273750634</v>
       </c>
       <c r="O10" t="n">
         <v>1391.602671897099</v>
       </c>
       <c r="P10" t="n">
-        <v>1591.80738463481</v>
+        <v>1591.807384634811</v>
       </c>
       <c r="Q10" t="n">
         <v>1646.983670153878</v>
       </c>
       <c r="R10" t="n">
-        <v>1646.983670153878</v>
+        <v>1544.862307910904</v>
       </c>
       <c r="S10" t="n">
-        <v>1646.983670153878</v>
+        <v>1348.412641916873</v>
       </c>
       <c r="T10" t="n">
-        <v>1646.983670153878</v>
+        <v>1125.478067458854</v>
       </c>
       <c r="U10" t="n">
-        <v>1646.983670153878</v>
+        <v>836.3602904692525</v>
       </c>
       <c r="V10" t="n">
-        <v>1646.983670153878</v>
+        <v>581.6758022633657</v>
       </c>
       <c r="W10" t="n">
-        <v>1357.566500116917</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="X10" t="n">
-        <v>1129.5769492189</v>
+        <v>454.2408992965895</v>
       </c>
       <c r="Y10" t="n">
-        <v>908.7843700753696</v>
+        <v>233.4483201530594</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,13 +5027,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192599</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,25 +5121,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2495.978408795858</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E13" t="n">
-        <v>565.7099969556945</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F13" t="n">
-        <v>418.8200494577841</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G13" t="n">
-        <v>251.623950172664</v>
+        <v>198.027470314254</v>
       </c>
       <c r="H13" t="n">
-        <v>109.9121190148621</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5242,7 +5242,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5279,22 +5279,22 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,25 +5355,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="17">
@@ -5495,40 +5495,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2072.35525930079</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5741,16 +5741,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5759,10 +5759,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>766.1780053015053</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>618.2649117191122</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>471.3749642212018</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>304.1788649360818</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5953,7 +5953,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
@@ -5990,7 +5990,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>95.58405025273903</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2366.028450684176</v>
       </c>
       <c r="Q24" t="n">
         <v>2516.421633107662</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6239,37 +6239,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,25 +6361,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>415.5933575433587</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>268.7034100454483</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>101.5073107603283</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6664,7 +6664,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="32">
@@ -6704,13 +6704,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6901,7 +6901,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>697.5276345711974</v>
       </c>
     </row>
     <row r="35">
@@ -6929,34 +6929,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192559</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111711</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797186</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O36" t="n">
         <v>1859.536823237711</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>606.6423399580283</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>459.7523924601179</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="38">
@@ -7166,10 +7166,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7184,40 +7184,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7245,22 +7245,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N39" t="n">
         <v>1307.627092998424</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7388,40 +7388,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,28 +7430,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>747.3584617859342</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>597.2418223735984</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>449.3287287912053</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>282.1326295060853</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>140.4207983482833</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7612,7 +7612,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7637,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,22 +7725,22 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N45" t="n">
-        <v>1671.859558793925</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7837,19 +7837,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7976,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>207.0311336426203</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>348.4370131942333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>338.9374781659683</v>
+        <v>143.3909986625177</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>369.603020508346</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>26.19461818159724</v>
+        <v>26.19461818159829</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,13 +8067,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>248.7601900310591</v>
+        <v>359.2821607945085</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>204.6347509527606</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8228,7 +8228,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>173.763924374041</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>299.8549597144492</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.18437503906583</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>173.7639243740402</v>
       </c>
       <c r="P9" t="n">
-        <v>299.8549597144495</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.18437503906581</v>
+        <v>20.18437503906578</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9638,7 +9638,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10841,7 +10841,7 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="I13" t="n">
-        <v>65.33133491134421</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>58.20633287440191</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23662,16 +23662,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>12.04875628922491</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,7 +23944,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194228</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>13.30196929556064</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,7 +24370,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>144.634190040853</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>132.680971610991</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,25 +25072,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>2.00531331087754</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25309,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25318,19 +25318,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.2291039219422</v>
+        <v>24.80831533903373</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25375,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,16 +25555,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>63.36835372228751</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>35.12774237125718</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>711009.1337253441</v>
+        <v>711009.1337253447</v>
       </c>
     </row>
     <row r="3">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671385.440429366</v>
+        <v>671385.4404293661</v>
       </c>
     </row>
     <row r="16">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244618</v>
+        <v>759463.6371244621</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244621</v>
+        <v>759463.6371244622</v>
       </c>
       <c r="E2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="F2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132557</v>
       </c>
       <c r="G2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132553</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="M2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="M2" t="n">
-        <v>746610.6047132553</v>
-      </c>
       <c r="N2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="P2" t="n">
         <v>746610.6047132552</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>939682.9358753986</v>
+        <v>939682.9358753948</v>
       </c>
       <c r="C3" t="n">
-        <v>172764.3597898921</v>
+        <v>172764.3597898961</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>500888.8677457509</v>
+        <v>500888.8677457506</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>169414.016826048</v>
+        <v>169414.0168260481</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159785.8388151599</v>
+        <v>159785.8388151605</v>
       </c>
       <c r="C4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="D4" t="n">
-        <v>129066.754725248</v>
+        <v>129066.7547252479</v>
       </c>
       <c r="E4" t="n">
         <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
-        <v>6287.480531695072</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="G4" t="n">
-        <v>6287.480531695054</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="H4" t="n">
-        <v>6287.480531695065</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="I4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695061</v>
       </c>
       <c r="J4" t="n">
+        <v>6287.480531695101</v>
+      </c>
+      <c r="K4" t="n">
+        <v>6287.480531695085</v>
+      </c>
+      <c r="L4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="K4" t="n">
-        <v>6287.48053169506</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="M4" t="n">
-        <v>6287.480531695093</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="N4" t="n">
-        <v>6287.480531695041</v>
+        <v>6287.480531695053</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695052</v>
+        <v>6287.480531695075</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695051</v>
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89345.0748969909</v>
+        <v>89345.07489699083</v>
       </c>
       <c r="C5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.08936150961</v>
       </c>
       <c r="D5" t="n">
-        <v>93481.08936150957</v>
+        <v>93481.0893615096</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-429350.2124630875</v>
+        <v>-429350.2124630841</v>
       </c>
       <c r="C6" t="n">
-        <v>364151.4332478126</v>
+        <v>364151.4332478089</v>
       </c>
       <c r="D6" t="n">
-        <v>536915.7930377044</v>
+        <v>536915.7930377047</v>
       </c>
       <c r="E6" t="n">
-        <v>138311.7266119022</v>
+        <v>138276.9886864672</v>
       </c>
       <c r="F6" t="n">
-        <v>639200.5943576533</v>
+        <v>639165.8564322179</v>
       </c>
       <c r="G6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="H6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322176</v>
       </c>
       <c r="I6" t="n">
-        <v>639200.5943576531</v>
+        <v>639165.8564322173</v>
       </c>
       <c r="J6" t="n">
-        <v>469786.5775316051</v>
+        <v>469751.8396061693</v>
       </c>
       <c r="K6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="L6" t="n">
-        <v>639200.5943576531</v>
+        <v>639165.8564322175</v>
       </c>
       <c r="M6" t="n">
-        <v>508316.1374534179</v>
+        <v>508281.3995279821</v>
       </c>
       <c r="N6" t="n">
-        <v>639200.5943576533</v>
+        <v>639165.8564322174</v>
       </c>
       <c r="O6" t="n">
-        <v>639200.5943576532</v>
+        <v>639165.8564322173</v>
       </c>
       <c r="P6" t="n">
-        <v>639200.5943576531</v>
+        <v>639165.8564322174</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>939.7063906498443</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="D3" t="n">
-        <v>939.7063906498444</v>
+        <v>939.7063906498446</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="D4" t="n">
-        <v>647.4981915352462</v>
+        <v>647.4981915352466</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>749.9809564976108</v>
+        <v>749.9809564976067</v>
       </c>
       <c r="C3" t="n">
-        <v>189.7254341522334</v>
+        <v>189.7254341522379</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>428.2691096918294</v>
+        <v>428.2691096918292</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352465</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.210096564402</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>647.4981915352464</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>525.2100965644022</v>
+        <v>525.2100965644017</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>376.1599928168905</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>86.15584065734942</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>308.5974454495113</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>106.5372566391964</v>
       </c>
       <c r="H4" t="n">
-        <v>150.2028876639205</v>
+        <v>150.2028876639206</v>
       </c>
       <c r="I4" t="n">
-        <v>114.7793764994862</v>
+        <v>114.7793764994864</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>49.57790514522283</v>
+        <v>116.4834600519701</v>
       </c>
       <c r="S4" t="n">
-        <v>200.4475243713015</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.1670476323163</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,19 +27622,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>300.7862872484598</v>
       </c>
       <c r="I5" t="n">
-        <v>64.83556544767976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>122.9354087744531</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.5589059457607</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0434357771752</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>70.70755672115121</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>203.0633118025971</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>80.30592901016415</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I7" t="n">
-        <v>70.5597636018404</v>
+        <v>104.4906595130011</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>101.1001486205444</v>
       </c>
       <c r="S7" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2265992197056</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>125.76344241191</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>300.7862872484598</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.65618787374477</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>122.9354087744531</v>
+        <v>122.935408774453</v>
       </c>
       <c r="T8" t="n">
-        <v>206.5589059457607</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.2964268507295</v>
       </c>
       <c r="H10" t="n">
-        <v>106.158139778861</v>
+        <v>147.161060211447</v>
       </c>
       <c r="I10" t="n">
         <v>104.4906595130011</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.1001486205444</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.4851693340911</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7052287134384</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2265992197056</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>160.3624443994827</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28330,7 +28330,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>7.389644451905042e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30034,7 +30034,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30472,7 +30472,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.014998820090895</v>
+        <v>3.014998820090879</v>
       </c>
       <c r="H2" t="n">
-        <v>30.87735666625589</v>
+        <v>30.87735666625572</v>
       </c>
       <c r="I2" t="n">
-        <v>116.2357420115544</v>
+        <v>116.2357420115537</v>
       </c>
       <c r="J2" t="n">
-        <v>255.8942561066899</v>
+        <v>255.8942561066885</v>
       </c>
       <c r="K2" t="n">
-        <v>383.5191561611376</v>
+        <v>383.5191561611355</v>
       </c>
       <c r="L2" t="n">
-        <v>475.7894263014944</v>
+        <v>475.7894263014918</v>
       </c>
       <c r="M2" t="n">
-        <v>529.4074115682859</v>
+        <v>529.4074115682829</v>
       </c>
       <c r="N2" t="n">
-        <v>537.9737769658691</v>
+        <v>537.9737769658663</v>
       </c>
       <c r="O2" t="n">
-        <v>507.9933824485902</v>
+        <v>507.9933824485875</v>
       </c>
       <c r="P2" t="n">
-        <v>433.5605990775962</v>
+        <v>433.5605990775938</v>
       </c>
       <c r="Q2" t="n">
-        <v>325.5859538330909</v>
+        <v>325.5859538330891</v>
       </c>
       <c r="R2" t="n">
-        <v>189.3909196325349</v>
+        <v>189.3909196325338</v>
       </c>
       <c r="S2" t="n">
-        <v>68.70428561282135</v>
+        <v>68.70428561282097</v>
       </c>
       <c r="T2" t="n">
-        <v>13.1981573349479</v>
+        <v>13.19815733494783</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2411999056072716</v>
+        <v>0.2411999056072703</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.613166585674106</v>
+        <v>1.613166585674098</v>
       </c>
       <c r="H3" t="n">
-        <v>15.5797930774315</v>
+        <v>15.57979307743142</v>
       </c>
       <c r="I3" t="n">
-        <v>55.54104253307779</v>
+        <v>55.54104253307749</v>
       </c>
       <c r="J3" t="n">
-        <v>152.4088658859909</v>
+        <v>152.4088658859901</v>
       </c>
       <c r="K3" t="n">
-        <v>260.491027126156</v>
+        <v>260.4910271261546</v>
       </c>
       <c r="L3" t="n">
-        <v>350.2623325605116</v>
+        <v>350.2623325605097</v>
       </c>
       <c r="M3" t="n">
-        <v>408.7396212911979</v>
+        <v>408.7396212911956</v>
       </c>
       <c r="N3" t="n">
-        <v>419.5577428240738</v>
+        <v>419.5577428240715</v>
       </c>
       <c r="O3" t="n">
-        <v>383.813367425716</v>
+        <v>383.8133674257139</v>
       </c>
       <c r="P3" t="n">
-        <v>308.04406494333</v>
+        <v>308.0440649433284</v>
       </c>
       <c r="Q3" t="n">
-        <v>205.9192996028912</v>
+        <v>205.9192996028901</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526432</v>
+        <v>100.1578341526427</v>
       </c>
       <c r="S3" t="n">
-        <v>29.96386179969226</v>
+        <v>29.9638617996921</v>
       </c>
       <c r="T3" t="n">
-        <v>6.502193386993435</v>
+        <v>6.502193386993399</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1061293806364544</v>
+        <v>0.1061293806364538</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.352424675651429</v>
+        <v>1.352424675651422</v>
       </c>
       <c r="H4" t="n">
-        <v>12.02428484351908</v>
+        <v>12.02428484351901</v>
       </c>
       <c r="I4" t="n">
-        <v>40.67109842777208</v>
+        <v>40.67109842777186</v>
       </c>
       <c r="J4" t="n">
-        <v>95.61642456855604</v>
+        <v>95.61642456855552</v>
       </c>
       <c r="K4" t="n">
-        <v>157.1271577711387</v>
+        <v>157.1271577711379</v>
       </c>
       <c r="L4" t="n">
-        <v>201.0686649600316</v>
+        <v>201.0686649600305</v>
       </c>
       <c r="M4" t="n">
-        <v>211.9987152932508</v>
+        <v>211.9987152932497</v>
       </c>
       <c r="N4" t="n">
-        <v>206.9578596840047</v>
+        <v>206.9578596840036</v>
       </c>
       <c r="O4" t="n">
-        <v>191.1590805184402</v>
+        <v>191.1590805184392</v>
       </c>
       <c r="P4" t="n">
-        <v>163.569617135151</v>
+        <v>163.5696171351501</v>
       </c>
       <c r="Q4" t="n">
-        <v>113.2471244311392</v>
+        <v>113.2471244311386</v>
       </c>
       <c r="R4" t="n">
-        <v>60.8099313251997</v>
+        <v>60.80993132519936</v>
       </c>
       <c r="S4" t="n">
-        <v>23.56907366567081</v>
+        <v>23.56907366567068</v>
       </c>
       <c r="T4" t="n">
-        <v>5.778541795965196</v>
+        <v>5.778541795965165</v>
       </c>
       <c r="U4" t="n">
-        <v>0.07376861867189623</v>
+        <v>0.07376861867189582</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.777714133265702</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H5" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I5" t="n">
         <v>145.6403241227262</v>
       </c>
       <c r="J5" t="n">
-        <v>320.6287649182602</v>
+        <v>320.6287649182603</v>
       </c>
       <c r="K5" t="n">
-        <v>480.5394041793975</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L5" t="n">
-        <v>596.1516230853279</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M5" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N5" t="n">
-        <v>674.066977083933</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O5" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P5" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q5" t="n">
-        <v>407.9506271086969</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R5" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S5" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T5" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,46 +31355,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H6" t="n">
-        <v>19.5210704925562</v>
+        <v>19.52107049255621</v>
       </c>
       <c r="I6" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J6" t="n">
         <v>190.9642958583802</v>
       </c>
       <c r="K6" t="n">
-        <v>326.388397967503</v>
+        <v>326.3883979675031</v>
       </c>
       <c r="L6" t="n">
-        <v>438.8694798973636</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M6" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N6" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O6" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P6" t="n">
-        <v>385.9711022274804</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q6" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R6" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S6" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T6" t="n">
-        <v>8.147077103841571</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U6" t="n">
         <v>0.1329773194315818</v>
@@ -31434,31 +31434,31 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H7" t="n">
-        <v>15.06611229599259</v>
+        <v>15.0661122959926</v>
       </c>
       <c r="I7" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J7" t="n">
-        <v>119.8048622964563</v>
+        <v>119.8048622964564</v>
       </c>
       <c r="K7" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L7" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M7" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N7" t="n">
-        <v>259.3127487509645</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O7" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P7" t="n">
         <v>204.9484232984512</v>
@@ -31467,16 +31467,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R7" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S7" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T7" t="n">
-        <v>7.240360714843059</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09243013678523068</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,10 +31513,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.777714133265703</v>
+        <v>3.777714133265704</v>
       </c>
       <c r="H8" t="n">
-        <v>38.68851486730739</v>
+        <v>38.6885148673074</v>
       </c>
       <c r="I8" t="n">
         <v>145.6403241227262</v>
@@ -31525,37 +31525,37 @@
         <v>320.6287649182603</v>
       </c>
       <c r="K8" t="n">
-        <v>480.5394041793976</v>
+        <v>480.5394041793977</v>
       </c>
       <c r="L8" t="n">
-        <v>596.151623085328</v>
+        <v>596.1516230853281</v>
       </c>
       <c r="M8" t="n">
-        <v>663.3335468027918</v>
+        <v>663.3335468027921</v>
       </c>
       <c r="N8" t="n">
-        <v>674.0669770839331</v>
+        <v>674.0669770839332</v>
       </c>
       <c r="O8" t="n">
-        <v>636.5023321712722</v>
+        <v>636.5023321712724</v>
       </c>
       <c r="P8" t="n">
-        <v>543.2400145062751</v>
+        <v>543.2400145062752</v>
       </c>
       <c r="Q8" t="n">
-        <v>407.950627108697</v>
+        <v>407.9506271086971</v>
       </c>
       <c r="R8" t="n">
-        <v>237.3018354237519</v>
+        <v>237.301835423752</v>
       </c>
       <c r="S8" t="n">
-        <v>86.08466081179229</v>
+        <v>86.08466081179232</v>
       </c>
       <c r="T8" t="n">
-        <v>16.53694361837062</v>
+        <v>16.53694361837063</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3022171306612562</v>
+        <v>0.3022171306612563</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,13 +31592,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.021255255360042</v>
+        <v>2.021255255360043</v>
       </c>
       <c r="H9" t="n">
         <v>19.52107049255621</v>
       </c>
       <c r="I9" t="n">
-        <v>69.59146383586112</v>
+        <v>69.59146383586115</v>
       </c>
       <c r="J9" t="n">
         <v>190.9642958583802</v>
@@ -31607,31 +31607,31 @@
         <v>326.3883979675031</v>
       </c>
       <c r="L9" t="n">
-        <v>438.8694798973637</v>
+        <v>438.8694798973638</v>
       </c>
       <c r="M9" t="n">
-        <v>512.1399829041651</v>
+        <v>512.1399829041652</v>
       </c>
       <c r="N9" t="n">
-        <v>525.6948043315577</v>
+        <v>525.6948043315579</v>
       </c>
       <c r="O9" t="n">
-        <v>480.908043147001</v>
+        <v>480.9080431470011</v>
       </c>
       <c r="P9" t="n">
-        <v>385.9711022274805</v>
+        <v>385.9711022274806</v>
       </c>
       <c r="Q9" t="n">
-        <v>258.0114603157837</v>
+        <v>258.0114603157838</v>
       </c>
       <c r="R9" t="n">
-        <v>125.4951289248981</v>
+        <v>125.4951289248982</v>
       </c>
       <c r="S9" t="n">
-        <v>37.54392985284989</v>
+        <v>37.5439298528499</v>
       </c>
       <c r="T9" t="n">
-        <v>8.147077103841573</v>
+        <v>8.147077103841575</v>
       </c>
       <c r="U9" t="n">
         <v>0.1329773194315818</v>
@@ -31671,31 +31671,31 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.694552507729227</v>
+        <v>1.694552507729228</v>
       </c>
       <c r="H10" t="n">
         <v>15.0661122959926</v>
       </c>
       <c r="I10" t="n">
-        <v>50.95981541425714</v>
+        <v>50.95981541425716</v>
       </c>
       <c r="J10" t="n">
         <v>119.8048622964564</v>
       </c>
       <c r="K10" t="n">
-        <v>196.8761913525411</v>
+        <v>196.8761913525412</v>
       </c>
       <c r="L10" t="n">
-        <v>251.9337428309435</v>
+        <v>251.9337428309436</v>
       </c>
       <c r="M10" t="n">
-        <v>265.6288080979551</v>
+        <v>265.6288080979552</v>
       </c>
       <c r="N10" t="n">
-        <v>259.3127487509646</v>
+        <v>259.3127487509647</v>
       </c>
       <c r="O10" t="n">
-        <v>239.5172944561276</v>
+        <v>239.5172944561277</v>
       </c>
       <c r="P10" t="n">
         <v>204.9484232984512</v>
@@ -31704,16 +31704,16 @@
         <v>141.8956649881265</v>
       </c>
       <c r="R10" t="n">
-        <v>76.19324275662505</v>
+        <v>76.19324275662508</v>
       </c>
       <c r="S10" t="n">
-        <v>29.53142870288116</v>
+        <v>29.53142870288117</v>
       </c>
       <c r="T10" t="n">
-        <v>7.24036071484306</v>
+        <v>7.240360714843062</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0924301367852307</v>
+        <v>0.09243013678523071</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31841,16 +31841,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>160.6314956130963</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32315,28 +32315,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>346.9084613860368</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,31 +32546,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>460.9249101897664</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>321.1112257697157</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>126.8376266666667</v>
@@ -32792,10 +32792,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,10 +32804,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>291.8940795642898</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>230.1272937575231</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,10 +33257,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
         <v>475.1391886422585</v>
@@ -33269,22 +33269,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067228</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33737,19 +33737,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082914</v>
       </c>
       <c r="P36" t="n">
         <v>561.8765786214698</v>
@@ -33971,7 +33971,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
@@ -33980,10 +33980,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>528.7932908500043</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359106</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34214,7 +34214,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>622.4211036182646</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>332.1692388321076</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>74.84835158000359</v>
+        <v>243.9449667520759</v>
       </c>
       <c r="K2" t="n">
-        <v>163.429305116157</v>
+        <v>163.4293051161549</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0541449741274</v>
+        <v>240.0230113315046</v>
       </c>
       <c r="M2" t="n">
-        <v>647.4981915352464</v>
+        <v>299.0611783410102</v>
       </c>
       <c r="N2" t="n">
-        <v>647.4981915352464</v>
+        <v>451.951712031793</v>
       </c>
       <c r="O2" t="n">
-        <v>277.8951710269035</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="P2" t="n">
-        <v>202.3276033223266</v>
+        <v>202.3276033223243</v>
       </c>
       <c r="Q2" t="n">
-        <v>103.2802639586414</v>
+        <v>315.5952546185443</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>151.662274559733</v>
+        <v>25.57123921932339</v>
       </c>
       <c r="K3" t="n">
-        <v>387.1148251643756</v>
+        <v>122.6495881517956</v>
       </c>
       <c r="L3" t="n">
-        <v>211.7079527806374</v>
+        <v>211.7079527806355</v>
       </c>
       <c r="M3" t="n">
-        <v>266.6055873691795</v>
+        <v>266.6055873691773</v>
       </c>
       <c r="N3" t="n">
-        <v>536.9762207717996</v>
+        <v>647.4981915352467</v>
       </c>
       <c r="O3" t="n">
-        <v>241.2171229812715</v>
+        <v>635.0794422579989</v>
       </c>
       <c r="P3" t="n">
-        <v>492.5324261689369</v>
+        <v>378.7044084817587</v>
       </c>
       <c r="Q3" t="n">
-        <v>276.0148132527188</v>
+        <v>276.0148132527177</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.257244451883267</v>
+        <v>2.257244451882741</v>
       </c>
       <c r="K4" t="n">
-        <v>134.8576659452559</v>
+        <v>134.857665945255</v>
       </c>
       <c r="L4" t="n">
-        <v>228.6586902203478</v>
+        <v>228.6586902203466</v>
       </c>
       <c r="M4" t="n">
-        <v>251.5825922550914</v>
+        <v>251.5825922550902</v>
       </c>
       <c r="N4" t="n">
-        <v>251.0900320632333</v>
+        <v>251.0900320632322</v>
       </c>
       <c r="O4" t="n">
-        <v>215.7442084324799</v>
+        <v>215.7442084324789</v>
       </c>
       <c r="P4" t="n">
-        <v>160.8481764000445</v>
+        <v>160.8481764000436</v>
       </c>
       <c r="Q4" t="n">
-        <v>27.08508117944484</v>
+        <v>27.08508117944423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>139.5828603915739</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K5" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L5" t="n">
-        <v>360.3852081153406</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M5" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N5" t="n">
-        <v>444.6539134873421</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O5" t="n">
-        <v>406.4041207495854</v>
+        <v>406.404120749587</v>
       </c>
       <c r="P5" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q5" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R5" t="n">
-        <v>21.71629760961977</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>190.2177045321223</v>
+        <v>64.12666919171355</v>
       </c>
       <c r="K6" t="n">
-        <v>362.3108833671851</v>
+        <v>188.5469589931441</v>
       </c>
       <c r="L6" t="n">
-        <v>300.3151001174895</v>
+        <v>600.1700598319388</v>
       </c>
       <c r="M6" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N6" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O6" t="n">
-        <v>338.3117987025565</v>
+        <v>338.3117987025567</v>
       </c>
       <c r="P6" t="n">
-        <v>251.9966948131502</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q6" t="n">
-        <v>328.1069739656112</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>26.44568217978357</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K7" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L7" t="n">
-        <v>279.5237680912596</v>
+        <v>279.5237680912597</v>
       </c>
       <c r="M7" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N7" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O7" t="n">
-        <v>264.1024223701672</v>
+        <v>264.1024223701673</v>
       </c>
       <c r="P7" t="n">
-        <v>202.2269825633446</v>
+        <v>202.2269825633447</v>
       </c>
       <c r="Q7" t="n">
-        <v>55.73362173643208</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>139.582860391574</v>
+        <v>139.5828603915741</v>
       </c>
       <c r="K8" t="n">
-        <v>260.449553134417</v>
+        <v>260.4495531344172</v>
       </c>
       <c r="L8" t="n">
-        <v>360.3852081153407</v>
+        <v>360.3852081153408</v>
       </c>
       <c r="M8" t="n">
-        <v>432.9873135755191</v>
+        <v>432.9873135755194</v>
       </c>
       <c r="N8" t="n">
-        <v>444.6539134873422</v>
+        <v>444.6539134873423</v>
       </c>
       <c r="O8" t="n">
-        <v>406.4041207495854</v>
+        <v>406.4041207495857</v>
       </c>
       <c r="P8" t="n">
-        <v>312.0070187510055</v>
+        <v>312.0070187510057</v>
       </c>
       <c r="Q8" t="n">
-        <v>185.6449372342475</v>
+        <v>185.6449372342476</v>
       </c>
       <c r="R8" t="n">
-        <v>21.7162976096198</v>
+        <v>21.71629760961986</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>64.12666919171352</v>
+        <v>190.2177045321224</v>
       </c>
       <c r="K9" t="n">
         <v>188.5469589931441</v>
       </c>
       <c r="L9" t="n">
-        <v>300.3151001174895</v>
+        <v>300.3151001174896</v>
       </c>
       <c r="M9" t="n">
-        <v>370.0059489821468</v>
+        <v>370.0059489821469</v>
       </c>
       <c r="N9" t="n">
-        <v>394.3530922482245</v>
+        <v>394.3530922482246</v>
       </c>
       <c r="O9" t="n">
-        <v>338.3117987025566</v>
+        <v>512.0757230765969</v>
       </c>
       <c r="P9" t="n">
-        <v>551.8516545275997</v>
+        <v>251.9966948131503</v>
       </c>
       <c r="Q9" t="n">
-        <v>328.1069739656113</v>
+        <v>328.1069739656114</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,19 +35328,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>26.44568217978359</v>
+        <v>26.44568217978362</v>
       </c>
       <c r="K10" t="n">
-        <v>174.6066995266582</v>
+        <v>174.6066995266583</v>
       </c>
       <c r="L10" t="n">
         <v>279.5237680912597</v>
       </c>
       <c r="M10" t="n">
-        <v>305.2126850597957</v>
+        <v>305.2126850597958</v>
       </c>
       <c r="N10" t="n">
-        <v>303.4449211301932</v>
+        <v>303.4449211301933</v>
       </c>
       <c r="O10" t="n">
         <v>264.1024223701673</v>
@@ -35349,7 +35349,7 @@
         <v>202.2269825633447</v>
       </c>
       <c r="Q10" t="n">
-        <v>55.73362173643211</v>
+        <v>55.73362173643214</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35489,16 +35489,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>20.64972152707474</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35902,7 +35902,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35963,28 +35963,28 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,31 +36194,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>322.3705304098922</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>187.1368183553855</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,10 +36452,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="R24" t="n">
         <v>37.00975247789211</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>98.78558167418976</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,10 +36905,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
@@ -36917,22 +36917,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316905</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37385,19 +37385,19 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>342.516458763847</v>
       </c>
       <c r="P36" t="n">
         <v>427.9021712071395</v>
@@ -37552,7 +37552,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.858447819351</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37561,7 +37561,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37619,7 +37619,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
@@ -37628,10 +37628,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>386.659256927986</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525773</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,7 +37862,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>483.8667238383904</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>189.5729943876631</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
